--- a/va_facility_data_2025-02-20/Sabal Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sabal%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Sabal Park VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Sabal%20Park%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,8 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R97e01b9b28d3428c82a50bf33a91408b"/>
-    <x:sheet name="Outpatient Score" sheetId="2" r:id="R33b036cc6f8a4267a67577fba0bcf6d6"/>
+    <x:sheet name="Satisfaction with Care" sheetId="1" r:id="R199c10ab08174a9cbdb156d06f451327"/>
+    <x:sheet name="Outpatient Score" sheetId="2" r:id="R1d98875dde5047b78a84d7fbf709fbc6"/>
   </x:sheets>
 </x:workbook>
 </file>
